--- a/biology/Botanique/Oryza_meyeriana/Oryza_meyeriana.xlsx
+++ b/biology/Botanique/Oryza_meyeriana/Oryza_meyeriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Oryza meyeriana est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire de l'Asie tropicale. 
-Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) dressées, pouvant atteindre 60 à 100 cm de long. L'inflorescence est une panicule[2].
-Cette espèce de riz sauvage diploïde (2n=24), au génome de type GG, fait partie du pool génique tertiaire du riz cultivé (Oryza sativa)[3]. Elle présente des caractères intéressants sur le plan économique, tels que la tolérance à l'ombre (en) ou l'adaptation aux sols aérobies[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Oryza meyeriana est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire de l'Asie tropicale. 
+Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) dressées, pouvant atteindre 60 à 100 cm de long. L'inflorescence est une panicule.
+Cette espèce de riz sauvage diploïde (2n=24), au génome de type GG, fait partie du pool génique tertiaire du riz cultivé (Oryza sativa). Elle présente des caractères intéressants sur le plan économique, tels que la tolérance à l'ombre (en) ou l'adaptation aux sols aérobies.
 Étymologie
-l'épithète spécifique, « meyeriana », est un hommage au botaniste allemand, Ernst Heinrich Friedrich Meyer (1791-1858)[5].</t>
+l'épithète spécifique, « meyeriana », est un hommage au botaniste allemand, Ernst Heinrich Friedrich Meyer (1791-1858).</t>
         </is>
       </c>
     </row>
@@ -514,9 +526,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (7 novembre 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 novembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Oryza meyeriana subsp. abromeitiana (Prod.) Tateoka
 sous-espèce Oryza meyeriana subsp. granulata (Nees &amp; Arn. ex G. Watt) Tateoka
 sous-espèce Oryza meyeriana subsp. meyeriana
